--- a/RESULTS/2018/B2 SET 6 [2.8..5.6] VIP=5/Fit .xlsx
+++ b/RESULTS/2018/B2 SET 6 [2.8..5.6] VIP=5/Fit .xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>Feature index</t>
   </si>
@@ -114,124 +114,133 @@
     <t>001101</t>
   </si>
   <si>
-    <t>21Linear0501000156</t>
+    <t>21Linear0101000156</t>
   </si>
   <si>
     <t>O-O</t>
   </si>
   <si>
-    <t>005100</t>
-  </si>
-  <si>
-    <t>21Linear0401011156</t>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>21Linear0101011156</t>
+  </si>
+  <si>
+    <t>11Linear031155</t>
+  </si>
+  <si>
+    <t>003111</t>
+  </si>
+  <si>
+    <t>11Linear040055</t>
+  </si>
+  <si>
+    <t>004100</t>
+  </si>
+  <si>
+    <t>11Linear041155</t>
+  </si>
+  <si>
+    <t>004111</t>
+  </si>
+  <si>
+    <t>11Linear060055</t>
+  </si>
+  <si>
+    <t>006100</t>
+  </si>
+  <si>
+    <t>21Linear0706011156</t>
+  </si>
+  <si>
+    <t>007101</t>
+  </si>
+  <si>
+    <t>006111</t>
+  </si>
+  <si>
+    <t>11Linear150055</t>
+  </si>
+  <si>
+    <t>015100</t>
+  </si>
+  <si>
+    <t>21Linear0403000156</t>
+  </si>
+  <si>
+    <t>003101</t>
+  </si>
+  <si>
+    <t>11Linear071155</t>
+  </si>
+  <si>
+    <t>007111</t>
+  </si>
+  <si>
+    <t>11Linear010055</t>
+  </si>
+  <si>
+    <t>21Linear0503011156</t>
+  </si>
+  <si>
+    <t>005101</t>
+  </si>
+  <si>
+    <t>21Linear0301000156</t>
+  </si>
+  <si>
+    <t>003100</t>
+  </si>
+  <si>
+    <t>11Linear030055</t>
+  </si>
+  <si>
+    <t>21Linear0401000156</t>
+  </si>
+  <si>
+    <t>21Linear0502011156</t>
+  </si>
+  <si>
+    <t>002111</t>
+  </si>
+  <si>
+    <t>21Linear0303000156</t>
+  </si>
+  <si>
+    <t>21Linear0404011156</t>
   </si>
   <si>
     <t>004101</t>
   </si>
   <si>
-    <t>11Linear010055</t>
-  </si>
-  <si>
-    <t>001100</t>
-  </si>
-  <si>
-    <t>11Linear060055</t>
-  </si>
-  <si>
-    <t>006100</t>
-  </si>
-  <si>
-    <t>11Linear041155</t>
-  </si>
-  <si>
-    <t>004111</t>
-  </si>
-  <si>
-    <t>11Linear071155</t>
-  </si>
-  <si>
-    <t>007111</t>
-  </si>
-  <si>
-    <t>21Linear0404011156</t>
-  </si>
-  <si>
-    <t>11Linear150055</t>
-  </si>
-  <si>
-    <t>015100</t>
-  </si>
-  <si>
-    <t>21Linear0505000156</t>
-  </si>
-  <si>
-    <t>005101</t>
-  </si>
-  <si>
     <t>11Linear051155</t>
   </si>
   <si>
     <t>005111</t>
   </si>
   <si>
-    <t>11Linear050155</t>
-  </si>
-  <si>
-    <t>21Linear0101010156</t>
-  </si>
-  <si>
-    <t>21Linear0402011156</t>
-  </si>
-  <si>
-    <t>002111</t>
-  </si>
-  <si>
-    <t>21Linear0604011156</t>
-  </si>
-  <si>
-    <t>006101</t>
-  </si>
-  <si>
-    <t>21Linear0504000156</t>
-  </si>
-  <si>
-    <t>11Linear061155</t>
-  </si>
-  <si>
-    <t>006111</t>
-  </si>
-  <si>
-    <t>21Linear0302011156</t>
-  </si>
-  <si>
-    <t>003101</t>
-  </si>
-  <si>
-    <t>21Linear0604000156</t>
-  </si>
-  <si>
-    <t>21Linear0707011156</t>
-  </si>
-  <si>
-    <t>007101</t>
-  </si>
-  <si>
-    <t>21Linear0603011156</t>
-  </si>
-  <si>
-    <t>003111</t>
-  </si>
-  <si>
-    <t>21Linear0603000156</t>
-  </si>
-  <si>
-    <t>21Linear0404000156</t>
-  </si>
-  <si>
-    <t>004100</t>
-  </si>
-  <si>
-    <t>21Linear0303010156</t>
+    <t>21Linear0601001157</t>
+  </si>
+  <si>
+    <t>11Linear021155</t>
+  </si>
+  <si>
+    <t>11Linear020055</t>
+  </si>
+  <si>
+    <t>002100</t>
+  </si>
+  <si>
+    <t>21Linear0101001157</t>
+  </si>
+  <si>
+    <t>21Linear0202010156</t>
+  </si>
+  <si>
+    <t>002101</t>
+  </si>
+  <si>
+    <t>11Linear030155</t>
   </si>
   <si>
     <t>11Linear040155</t>
@@ -698,32 +707,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04436230905173167</v>
+        <v>0.1479029648528175</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.109898101097051e-08</v>
+        <v>7.798931247169628e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0002666439217589078</v>
+        <v>0.0002792656664749469</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9832644188987416</v>
+        <v>0.9816425433199941</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9830128821086426</v>
+        <v>0.9813666296424389</v>
       </c>
       <c r="T2" t="n">
-        <v>8.90998574564383e-08</v>
+        <v>9.016986218606791e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0002984959923624408</v>
+        <v>0.0003002829701898993</v>
       </c>
       <c r="V2" t="n">
-        <v>0.967468660938034</v>
+        <v>0.9670779904291108</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9653562363236206</v>
+        <v>0.9649401975998323</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -759,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1010405894207356</v>
+        <v>-0.1000649946488285</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -776,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -785,7 +794,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -812,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>25.85798510514515</v>
+        <v>0.8003002145127018</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -829,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -838,13 +847,13 @@
         <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -865,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-6.986529931748959</v>
+        <v>-0.5106442414971734</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -882,35 +891,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2092446551056283</v>
+        <v>1.381285241071728</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -927,22 +936,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
@@ -955,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-78.48563202830248</v>
+        <v>-17.92075008048512</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -975,7 +984,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -987,7 +996,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -1000,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.102121414849494</v>
+        <v>-1.567556241223365</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -1017,35 +1026,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
         <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
       <c r="K9" t="s"/>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.791641620112463</v>
+        <v>47.956329138022</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -1062,34 +1071,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
@@ -1098,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.754972678480864</v>
+        <v>-15.83192876322029</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -1118,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1130,7 +1139,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
@@ -1143,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>29075.19677779754</v>
+        <v>-7362.354944508481</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -1160,34 +1169,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
         <v>27</v>
       </c>
       <c r="I12" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -1196,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>-163.9321119456091</v>
+        <v>-13.62387517007994</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -1213,22 +1222,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
@@ -1241,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.777890821868573</v>
+        <v>0.5774176004707812</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -1258,35 +1267,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s"/>
       <c r="I14" t="s"/>
       <c r="J14" t="s"/>
       <c r="K14" t="s"/>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>5.511639033231646</v>
+        <v>-0.1386270771100087</v>
       </c>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
@@ -1303,43 +1312,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I15" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04850853279869227</v>
+        <v>3.801940220422303</v>
       </c>
       <c r="O15" t="s"/>
       <c r="P15" t="s"/>
@@ -1356,43 +1365,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
       <c r="I16" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>7.975676748196726</v>
+        <v>2.62493912150677</v>
       </c>
       <c r="O16" t="s"/>
       <c r="P16" t="s"/>
@@ -1508,32 +1517,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0646796430391974</v>
+        <v>0.06467964303892393</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.034046126521229e-07</v>
+        <v>4.03404612652124e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006351414115392909</v>
+        <v>0.0006351414115392918</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9050449033774534</v>
+        <v>0.9050449033774531</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9044791331890369</v>
+        <v>0.9044791331890367</v>
       </c>
       <c r="P2" t="n">
-        <v>4.753480886375054e-07</v>
+        <v>4.753480886341081e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006894549213962472</v>
+        <v>0.0006894549213937835</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8264451786414527</v>
+        <v>0.8264451786426932</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8221063081074891</v>
+        <v>0.8221063081087605</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1565,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1294958576704668</v>
+        <v>-0.1294958576703887</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1585,7 +1594,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
@@ -1597,7 +1606,7 @@
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -1606,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.02038558661670829</v>
+        <v>-0.02038558661309228</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1623,22 +1632,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1647,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2589980845335813</v>
+        <v>17403.0687616025</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1667,7 +1676,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -1679,7 +1688,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1688,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04840774986597053</v>
+        <v>0.04840774986719273</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1705,22 +1714,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1729,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>17403.06876212996</v>
+        <v>0.2589980845340272</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1845,32 +1854,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06622497858573104</v>
+        <v>0.06622497858523277</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.296410819396277e-07</v>
+        <v>4.296410819396278e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006554701228428551</v>
+        <v>0.0006554701228428553</v>
       </c>
       <c r="N2" t="n">
-        <v>0.898869251443652</v>
+        <v>0.8988692514436519</v>
       </c>
       <c r="O2" t="n">
         <v>0.898367610825813</v>
       </c>
       <c r="P2" t="n">
-        <v>4.996215673207366e-07</v>
+        <v>4.996215673160043e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0007068391382208095</v>
+        <v>0.000706839138217462</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8175826642918236</v>
+        <v>0.8175826642935514</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8137980722646829</v>
+        <v>0.8137980722664466</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1902,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1348195662060281</v>
+        <v>-0.1348195662051341</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1919,22 +1928,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1943,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2726492463060161</v>
+        <v>10277.6913493467</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1963,7 +1972,7 @@
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1975,7 +1984,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1984,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04201051760129081</v>
+        <v>0.04201051760082204</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2001,22 +2010,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -2025,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>10277.69134916741</v>
+        <v>0.2726492463044289</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2120,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -2132,7 +2141,7 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -2259,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
@@ -2271,7 +2280,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -2300,7 +2309,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -2312,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -2453,32 +2462,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0418210234063219</v>
+        <v>0.1490097811146256</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.418784411375349e-08</v>
+        <v>7.897844907365695e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000272374455692441</v>
+        <v>0.0002810310464586732</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9825373491400438</v>
+        <v>0.9814097161319395</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9822926273061705</v>
+        <v>0.981149191633288</v>
       </c>
       <c r="T2" t="n">
-        <v>1.042723257931783e-07</v>
+        <v>9.203720825199667e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0003229122571120184</v>
+        <v>0.0003033763475487117</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9619290256797985</v>
+        <v>0.9663962018185459</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9596316392984071</v>
+        <v>0.9643683864110444</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2514,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.09196727901577073</v>
+        <v>-0.1317522418330656</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -2531,7 +2540,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -2540,7 +2549,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -2567,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37622196508122</v>
+        <v>1.008523334777166</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -2584,7 +2593,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -2593,13 +2602,13 @@
         <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -2620,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.048106527042579</v>
+        <v>-0.5058162066223411</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -2637,35 +2646,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1975030263104625</v>
+        <v>1.352851326993523</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -2682,22 +2691,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
@@ -2710,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-98.02190137227269</v>
+        <v>-4.824766215992883</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -2730,7 +2739,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -2742,7 +2751,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -2755,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.229000901151654</v>
+        <v>-1.52851941552124</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -2772,27 +2781,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
@@ -2800,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8574809929439458</v>
+        <v>4.431886705711663</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -2817,34 +2834,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
@@ -2853,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-6.562993337042806</v>
+        <v>-15.34859424914145</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -2873,7 +2890,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -2885,7 +2902,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
@@ -2898,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>44062.63357517681</v>
+        <v>14739.15120415082</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -2915,34 +2932,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
         <v>27</v>
       </c>
       <c r="I12" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -2951,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>-110.2217637482947</v>
+        <v>-13.23107205476507</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -2968,22 +2985,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
@@ -2996,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.062914195435468</v>
+        <v>0.5586266320778162</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -3013,35 +3030,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s"/>
       <c r="I14" t="s"/>
       <c r="J14" t="s"/>
       <c r="K14" t="s"/>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>5.744045901659909</v>
+        <v>-0.06674259298305785</v>
       </c>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
@@ -3058,7 +3075,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -3067,25 +3084,25 @@
         <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
       </c>
       <c r="I15" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="L15" t="n">
         <v>8</v>
@@ -3094,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>7.609046636052938</v>
+        <v>3.709486821800022</v>
       </c>
       <c r="O15" t="s"/>
       <c r="P15" t="s"/>
@@ -3226,32 +3243,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05030809814855784</v>
+        <v>0.1502940507695912</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>8.75001502642645e-08</v>
+        <v>8.389909246341941e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0002958042431478367</v>
+        <v>0.000289653400572856</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9794038417949487</v>
+        <v>0.9802514741241245</v>
       </c>
       <c r="S2" t="n">
-        <v>0.979136091738283</v>
+        <v>0.9799947432877382</v>
       </c>
       <c r="T2" t="n">
-        <v>1.112367524084114e-07</v>
+        <v>9.244318597654152e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0003335217420325269</v>
+        <v>0.0003040447104893317</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9593862368352362</v>
+        <v>0.9662479748809749</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9571202328818373</v>
+        <v>0.9643648146812009</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -3287,7 +3304,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1041650986801143</v>
+        <v>-0.1403767421851553</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -3304,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -3313,7 +3330,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -3340,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>28.85539389946122</v>
+        <v>0.9626789122938166</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -3357,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -3366,13 +3383,13 @@
         <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -3393,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-5.198128844619318</v>
+        <v>-0.4513445089882956</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -3410,35 +3427,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2150474987381776</v>
+        <v>1.026065077925581</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -3455,22 +3472,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
@@ -3483,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-86.07548314870611</v>
+        <v>-4.505135028899792</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -3503,7 +3520,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -3515,7 +3532,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -3528,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.589249003488725</v>
+        <v>-1.015554753398122</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -3545,27 +3562,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
@@ -3573,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1.223184625572874</v>
+        <v>4.195974698012406</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -3590,22 +3615,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -3617,7 +3642,7 @@
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
@@ -3626,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>4.796121524257996</v>
+        <v>1.42180401089896</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -3646,7 +3671,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -3658,7 +3683,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
@@ -3671,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>38108.77389087013</v>
+        <v>3411.989055607642</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -3688,34 +3713,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
         <v>27</v>
       </c>
       <c r="I12" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -3724,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>-86.47260947093103</v>
+        <v>-5.273971758690839</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -3741,22 +3766,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
@@ -3769,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.881515502724099</v>
+        <v>0.2234542493146483</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -3786,35 +3811,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H14" t="s"/>
       <c r="I14" t="s"/>
       <c r="J14" t="s"/>
       <c r="K14" t="s"/>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>4.493771927643685</v>
+        <v>-0.05972732093451993</v>
       </c>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
@@ -3946,32 +3971,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04243017333714128</v>
+        <v>0.151742873481303</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.207070824035668e-07</v>
+        <v>1.131974835020094e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003474292480542864</v>
+        <v>0.0003364483370474722</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9715874526141315</v>
+        <v>0.9733550940017843</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9712468426554597</v>
+        <v>0.9730356745492582</v>
       </c>
       <c r="T2" t="n">
-        <v>1.128123955858158e-07</v>
+        <v>1.232245667403013e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0003358755656278316</v>
+        <v>0.0003510335692498671</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9588109521612974</v>
+        <v>0.9550093538213293</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9566986932977742</v>
+        <v>0.9527021411967821</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -4007,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.09321276356954178</v>
+        <v>-0.1616689164018705</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -4024,7 +4049,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -4033,7 +4058,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -4060,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>25.37076356063767</v>
+        <v>0.9413117613808946</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -4077,34 +4102,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="L5" t="n">
         <v>8</v>
@@ -4113,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.593808868903992</v>
+        <v>-0.4133018348791134</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -4130,35 +4155,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2014513947867423</v>
+        <v>0.9058998456668909</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -4175,22 +4200,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
@@ -4203,7 +4228,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-75.72614217502117</v>
+        <v>-5.67370437853656</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -4223,7 +4248,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -4235,7 +4260,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -4248,7 +4273,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8448593927137447</v>
+        <v>-0.8635121889414944</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -4265,35 +4290,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
       <c r="K9" t="s"/>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9869872339261305</v>
+        <v>6.283354504711821</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -4310,10 +4335,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -4325,19 +4350,19 @@
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
@@ -4346,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>5.46944380602753</v>
+        <v>1.034325337777555</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -4366,7 +4391,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -4378,7 +4403,7 @@
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
@@ -4391,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>33685.29258746214</v>
+        <v>-1800.166448912015</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -4408,35 +4433,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" t="s">
-        <v>33</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
       <c r="L12" t="n">
         <v>4</v>
       </c>
@@ -4444,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>-175.2447256814573</v>
+        <v>0.0938080079100212</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -4461,35 +4478,35 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
       <c r="K13" t="s"/>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.580155913948587</v>
+        <v>0.007360099148401744</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -4621,32 +4638,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04730451863906524</v>
+        <v>0.1356894551695633</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.475931663308237e-07</v>
+        <v>1.432458694270514e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003841785604778378</v>
+        <v>0.0003784783605796393</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9652588916184343</v>
+        <v>0.9662821768873624</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9648775022050637</v>
+        <v>0.9659120211446088</v>
       </c>
       <c r="T2" t="n">
-        <v>1.559701489482718e-07</v>
+        <v>1.468599740506673e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0003949305621856478</v>
+        <v>0.0003832231387203378</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9430535811860051</v>
+        <v>0.946379806355924</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9403880041351372</v>
+        <v>0.9438699249513077</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -4682,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.09935176932525124</v>
+        <v>-0.1372050939500237</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -4699,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -4708,7 +4725,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -4735,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>13.85610727215008</v>
+        <v>0.6540941605689367</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -4752,34 +4769,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="L5" t="n">
         <v>8</v>
@@ -4788,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.974440374129364</v>
+        <v>-0.3024624786090745</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -4805,35 +4822,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2074135854375637</v>
+        <v>0.4318941375401278</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -4850,22 +4867,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
@@ -4878,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-41.09382394427653</v>
+        <v>-2.204649295218738</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -4895,22 +4912,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -4923,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4717316136420972</v>
+        <v>-0.4903309526592242</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -4940,27 +4957,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
+      <c r="I9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
@@ -4968,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.5388002623363778</v>
+        <v>5.615369587994394</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -4985,43 +5010,35 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>2.336386387155186</v>
+        <v>351.7249013407728</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -5038,35 +5055,35 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
       <c r="K11" t="s"/>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>-12226.81268621632</v>
+        <v>0.2788805914252386</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -5083,43 +5100,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>15.82231684884906</v>
+        <v>-0.01222377387248542</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -5251,32 +5260,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05126708221156598</v>
+        <v>0.08229955999389997</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>1.806139309709273e-07</v>
+        <v>1.504497390336855e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004249869774133406</v>
+        <v>0.0003878785106624051</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9574863233368333</v>
+        <v>0.9645864993638531</v>
       </c>
       <c r="S2" t="n">
-        <v>0.957062458165715</v>
+        <v>0.9642334235848287</v>
       </c>
       <c r="T2" t="n">
-        <v>1.830984944878612e-07</v>
+        <v>1.312173926594018e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0004279000987238274</v>
+        <v>0.0003622394134538672</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9331487235113447</v>
+        <v>0.9520910850669192</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9303160423041983</v>
+        <v>0.9500610462985684</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -5312,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1082845475321409</v>
+        <v>-0.1258481653068402</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -5329,7 +5338,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -5338,7 +5347,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -5365,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>11.66234050025262</v>
+        <v>0.4897526456023831</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -5382,34 +5391,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="L5" t="n">
         <v>8</v>
@@ -5418,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.803112430418599</v>
+        <v>-0.2890187843770635</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -5435,35 +5444,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.225312976420208</v>
+        <v>0.2489633943843533</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -5480,22 +5489,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
@@ -5508,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-36.73407631534425</v>
+        <v>-2.888412086075481</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -5525,27 +5534,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
       <c r="L8" t="n">
         <v>4</v>
       </c>
@@ -5553,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2764497268598685</v>
+        <v>1.048554890809586</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -5570,35 +5587,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-7</v>
+        <v>-15</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
       <c r="K9" t="s"/>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.2654101857342677</v>
+        <v>4586.357468647672</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -5615,43 +5632,35 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>175</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>4.679460890914758</v>
+        <v>-0.0198096983781033</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -5668,22 +5677,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
@@ -5696,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>4864.41556148873</v>
+        <v>0.127461986599525</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -5828,32 +5837,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04977438645246413</v>
+        <v>0.08462835954575534</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>2.356106061697109e-07</v>
+        <v>1.650501801362247e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0004853973693477447</v>
+        <v>0.0004062636830141536</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9445409715891508</v>
+        <v>0.9611497853250404</v>
       </c>
       <c r="S2" t="n">
-        <v>0.944043828904193</v>
+        <v>0.9608015264285517</v>
       </c>
       <c r="T2" t="n">
-        <v>2.648794276239901e-07</v>
+        <v>1.474314860471068e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000514664383481109</v>
+        <v>0.0003839680794637841</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9032896043095424</v>
+        <v>0.946171141032938</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8996170576377529</v>
+        <v>0.9441270071481128</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -5889,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1020833532339916</v>
+        <v>-0.1726809074866489</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -5906,34 +5915,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="I4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
@@ -5942,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>64.73578785223985</v>
+        <v>0.7450381775268836</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -5959,34 +5968,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="L5" t="n">
         <v>8</v>
@@ -5995,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.6548423113879204</v>
+        <v>-0.2887169817206145</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -6012,35 +6021,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2076489411665403</v>
+        <v>0.2447259797289209</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -6057,43 +6066,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>4.339197011808445</v>
+        <v>-1.656496748292728</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -6110,35 +6111,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
       <c r="K8" t="s"/>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2682755182167176</v>
+        <v>18064.29890205946</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -6158,7 +6159,7 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -6170,7 +6171,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
@@ -6183,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.2745942104643188</v>
+        <v>-0.01301780846805829</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -6200,22 +6201,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
@@ -6228,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-49848.25997571673</v>
+        <v>0.3532851119732475</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -6360,32 +6361,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05324450792499305</v>
+        <v>0.0494975273807436</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>2.571514172553584e-07</v>
+        <v>2.546343786226118e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000507100993151619</v>
+        <v>0.0005046130979499163</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9394706036909792</v>
+        <v>0.9400630749693908</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9389887776507084</v>
+        <v>0.9395859651184009</v>
       </c>
       <c r="T2" t="n">
-        <v>2.872992464257324e-07</v>
+        <v>3.007464980284069e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.000536003028373658</v>
+        <v>0.0005484035904590769</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8951038815938366</v>
+        <v>0.8901941419620751</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8915779616474109</v>
+        <v>0.8865031887507163</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -6421,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1072123081247817</v>
+        <v>-0.04951641574182611</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -6438,34 +6439,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L4" t="n">
         <v>4</v>
@@ -6474,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>20.37610586723645</v>
+        <v>0.2063176056885166</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -6491,7 +6492,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -6500,13 +6501,13 @@
         <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -6527,7 +6528,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.4712107301343662</v>
+        <v>-0.1303949652935003</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -6544,35 +6545,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2168340655708768</v>
+        <v>0.1053107546204057</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -6589,35 +6590,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-4</v>
+        <v>-15</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
       <c r="K7" t="s"/>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1177703575704655</v>
+        <v>5471.395939696242</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -6637,7 +6638,7 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -6649,7 +6650,7 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -6662,7 +6663,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0496602126623737</v>
+        <v>-0.03303951367965503</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -6679,22 +6680,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
@@ -6707,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-27513.14861183017</v>
+        <v>0.02724865546800324</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -6839,32 +6840,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06631184724718467</v>
+        <v>0.06546078211011079</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>3.20035105912615e-07</v>
+        <v>3.146163198177591e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0005657164536343406</v>
+        <v>0.0005609066943955644</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9246687731090837</v>
+        <v>0.9259442700693965</v>
       </c>
       <c r="S2" t="n">
-        <v>0.924144599562129</v>
+        <v>0.9254289717497999</v>
       </c>
       <c r="T2" t="n">
-        <v>3.147786685953345e-07</v>
+        <v>3.128987996332197e-07</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0005610513956807652</v>
+        <v>0.0005593735778826345</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8850708419757509</v>
+        <v>0.8857572028336066</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8817047160085135</v>
+        <v>0.8824111794856369</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -6900,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1336097045997416</v>
+        <v>-0.1307124446103029</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -6917,34 +6918,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="I4" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -6953,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1.382427163489552</v>
+        <v>0.3242258258838644</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -6970,22 +6971,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
@@ -6998,7 +6999,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.08939470179121251</v>
+        <v>-0.06449917383009293</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -7015,22 +7016,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-1</v>
+        <v>-15</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
@@ -7043,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2705614410483694</v>
+        <v>11561.63872109818</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -7063,7 +7064,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -7075,7 +7076,7 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
@@ -7088,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05012832583700495</v>
+        <v>0.0522613322583336</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -7105,22 +7106,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
@@ -7133,7 +7134,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>11183.52711930635</v>
+        <v>0.2656498963301483</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
